--- a/docs/StructureDefinition-medicationrequest-forExposureToIonizingRadiation.xlsx
+++ b/docs/StructureDefinition-medicationrequest-forExposureToIonizingRadiation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>Path</t>
   </si>
@@ -231,10 +231,6 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
@@ -248,10 +244,10 @@
     <t>closed</t>
   </si>
   <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @IONIZING RADIATION EXPOSURE 52-119</t>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>PENDING OUTPATIENT ORDERS @IONIZING RADIATION EXPOSURE 52.41-108</t>
   </si>
 </sst>
 </file>
@@ -410,7 +406,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -444,7 +440,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="72.0546875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1002,13 +998,13 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1047,14 +1043,14 @@
         <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>68</v>
@@ -1083,7 +1079,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>
@@ -1105,13 +1101,13 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1177,7 +1173,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>67</v>
